--- a/Agustin_Calatroni.xlsx
+++ b/Agustin_Calatroni.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\CV\cv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\CV-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10884C8-889E-4DFC-88E1-020EB58EFE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
   <si>
     <t>section</t>
   </si>
@@ -62,12 +63,6 @@
     <t>education</t>
   </si>
   <si>
-    <t>Lycée Franco-Argentin Jean Mermoz</t>
-  </si>
-  <si>
-    <t>Buenos Aires, Argentina</t>
-  </si>
-  <si>
     <t>B.S., Maîtrise en Sciences économiques</t>
   </si>
   <si>
@@ -122,20 +117,10 @@
     <t>data_science_writings</t>
   </si>
   <si>
-    <t>Our data science team focuses on modernizing clinical trials using interactive statistical graphics. Almost everything we do is open source, so you can see our code on GitHub or use this site to explore our publications, interactive visualizations, data, and blog.</t>
-  </si>
-  <si>
     <t>teaching_leadership_positions</t>
   </si>
   <si>
     <t>details_all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High school diploma
-Obtain two academic degrees, baccalauréat and bachillerato, corresponding to the French and Argentine high school degrees.
-Completion of the course of study gives graduates the opportunity to enter both the Argentine and French University systems.
-Graduates are expected to complete a rigorous academic program and to demonstrate a strong sense of public responsibility and exemplary citizenship.
-</t>
   </si>
   <si>
     <t>Université d'Aix-Marseille III &lt;br&gt; 
@@ -211,24 +196,15 @@
     <t>[DNA methylation and childhood asthma in the inner city](https://pubmed.ncbi.nlm.nih.gov/25769910)</t>
   </si>
   <si>
-    <t>[Cockroach allergen component analysis of children with or without asthma and rhinitis in an inner-city birth cohort](https://pubmed.ncbi.nlm.nih.gov/31201891)</t>
-  </si>
-  <si>
     <t>[Early decrease in basophil sensitivity to Ara h 2 precedes sustained unresponsiveness after peanut oral immunotherapy](https://pubmed.ncbi.nlm.nih.gov/31377342)</t>
   </si>
   <si>
     <t>[The association of allergic sensitization patterns in early childhood with disease manifestations and immunological reactivity at 10 years of age](https://pubmed.ncbi.nlm.nih.gov/31046157)</t>
   </si>
   <si>
-    <t>[Bedroom allergen exposures in US households](https://pubmed.ncbi.nlm.nih.gov/29198587)</t>
-  </si>
-  <si>
     <t>[A computerized decision support tool to implement asthma guidelines for children and adolescents](https://pubmed.ncbi.nlm.nih.gov/30529451)</t>
   </si>
   <si>
-    <t>[Building Bridges for Asthma Care: Reducing school absence for inner-city children with health disparities](https://pubmed.ncbi.nlm.nih.gov/30055181)</t>
-  </si>
-  <si>
     <t>[Minimally important differences and risk levels for the Composite Asthma Severity Index](https://pubmed.ncbi.nlm.nih.gov/27744028)</t>
   </si>
   <si>
@@ -247,24 +223,12 @@
     <t>Science Translational Medicine</t>
   </si>
   <si>
-    <t>[Serum IL-6: A biomarker in childhood asthma?](https://pubmed.ncbi.nlm.nih.gov/32004524)</t>
-  </si>
-  <si>
-    <t>[Rho Graphics](https://rhoinc.github.io/graphics/)</t>
-  </si>
-  <si>
-    <t>Society for Clinical Trials Annual Meeting</t>
-  </si>
-  <si>
     <t>Joint Statistical Meetings</t>
   </si>
   <si>
     <t>Blog</t>
   </si>
   <si>
-    <t>NHANES 2005-2006: Getting to Grips with the Big Data</t>
-  </si>
-  <si>
     <t>San Diego, CA</t>
   </si>
   <si>
@@ -289,13 +253,6 @@
     <t>Discuss methods to identify prognostic predictors for asthma exacerbations with the goal of developing strategies to prevent them and to define the potential challenges of interpreting data for subpopulations in a clinical trial</t>
   </si>
   <si>
-    <t>Identify procedures, such as the microbiome analysis, that may vary in findings based on the age of the study participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualizing Multivariate Data: Turning Information Into Understanding
-</t>
-  </si>
-  <si>
     <t>&lt;i class="fas fa-award"&gt;&lt;/i&gt;  Rho Presidential Award for _Outstanding Innovation for statistical visualizations_</t>
   </si>
   <si>
@@ -312,9 +269,6 @@
   </si>
   <si>
     <t>M.A., Masters en Sciences économiques</t>
-  </si>
-  <si>
-    <t>Baccalauréat en Sciences économiques</t>
   </si>
   <si>
     <t>Palo Alto, CA</t>
@@ -358,28 +312,13 @@
     <t>&lt;i class="fas fa-award"&gt;&lt;/i&gt;  Rho Innovation Award</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
     <t>[Visualization of The Museum of Modern Art (MoMA) Collection using Trelliscope](https://agstn.github.io/moma_trelliscopejs/app/)</t>
   </si>
   <si>
-    <t>[The Future, Today: Artificial Intelligence Applications for Clinical Research](https://www.rhoworld.com/the-future-today-artificial-intelligence-applications-for-clinical-research/)</t>
-  </si>
-  <si>
-    <t>With Our Powers Combined: Using Predictive Analytics for Boosting Model Accuracy and Future Applications</t>
-  </si>
-  <si>
     <t>[Estimation of the Correlation Coefficient with Left Censored and Repeated Measures Data](https://rhoinc.github.io/publication-library/pubs/JSM2008_Calatroni.pdf)</t>
   </si>
   <si>
     <t>Denver, CO</t>
-  </si>
-  <si>
-    <t>Montreal, QC</t>
-  </si>
-  <si>
-    <t>[Generating Automated Dataset Summaries](https://rhoinc.github.io/publication-library/pubs/SCT2007_Calatroni.pdf)</t>
   </si>
   <si>
     <t>UseR conference &lt;i class="fab fa-github"&gt;&lt;/i&gt;  &lt;a href="https://github.com/agstn/useR16_ensemble"&gt;github&lt;/a&gt;</t>
@@ -427,24 +366,86 @@
     <t>Chapel Hill, NC</t>
   </si>
   <si>
+    <t>&lt;i class="fab fa-github"&gt;&lt;/i&gt;  &lt;a href="https://github.com/RhoInc/GAMMapp"&gt;GAMMapp : a Shiny app for exploring longitudinal and seasonal data&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Expertise in multiple imputation, analysis of count data, linear mixed models, nonlinear mixed model and generalized (additive) mixed models.</t>
+  </si>
+  <si>
+    <t>Durham, NC &lt;br&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp; San Diego, CA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rho, Inc. &lt;br&gt;
-&lt;small&gt;  (2017)  Principal Statistical Scientist I &lt;br&gt;
-                  (2011)   Statistical Scientist  &lt;br&gt;
-                  (2005) Senior Biostatistician &lt;br&gt;
+&lt;small&gt;  (2021) Senior Director, Biostatistics Strategy &lt;br&gt;
+                (2017) Principal Statistical Scientist I &lt;br&gt;
+                (2011) Statistical Scientist  &lt;br&gt;
+                (2005) Senior Biostatistician &lt;br&gt;
  &lt;/small&gt;
                  </t>
   </si>
   <si>
-    <t>&lt;i class="fab fa-github"&gt;&lt;/i&gt;  &lt;a href="https://github.com/RhoInc/GAMMapp"&gt;GAMMapp : a Shiny app for exploring longitudinal and seasonal data&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Expertise in multiple imputation, analysis of count data, linear mixed models, nonlinear mixed model and generalized (additive) mixed models.</t>
+    <t>The Lancet [in press]</t>
+  </si>
+  <si>
+    <t>[Mepolizumab for Urban Children with Exacerbation-Prone Eosinophilic Asthma: A Randomised Controlled Trial](https://clinicaltrials.gov/ct2/show/NCT03292588)</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>[Interactive dashboards without Shiny](https://agstn.github.io/UseR2022_dashboards/UseR2022_dashboards.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>UseR conference &lt;i class="fab fa-github"&gt;&lt;/i&gt;  &lt;a href="https://github.com/agstn/UseR2022_dashboards"&gt;github&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The Big Mac Index Table &lt;i class="fab fa-github"&gt;&lt;/i&gt;  &lt;a href="https://github.com/agstn/RStudio_table_contest_2020"&gt;github&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataxray: An interactive table interface for data summaries &lt;i class="fab fa-github"&gt;&lt;/i&gt;  &lt;a href="https://github.com/agstn/dataxray"&gt;github&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>&lt;i class="fas fa-award"&gt;&lt;/i&gt; [2020 RStudio Honrable Mention Table Contest](https://www.rstudio.com/blog/winners-of-the-2020-rstudio-table-contest/)</t>
+  </si>
+  <si>
+    <t>&lt;i class="fas fa-award"&gt;&lt;/i&gt; [2021 RStudio Honrable Mention Table Contest](https://www.rstudio.com/blog/winners-of-the-2021-table-contest/)</t>
+  </si>
+  <si>
+    <t>Nature Medicine</t>
+  </si>
+  <si>
+    <t>[Development of a human skin commensal microbe for bacteriotherapy of atopic dermatitis and use in a phase 1 randomized clinical trial](https://pubmed.ncbi.nlm.nih.gov/33619370/)</t>
+  </si>
+  <si>
+    <t>[Wonderful Wednesday (WW) Challenge](https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webinar </t>
+  </si>
+  <si>
+    <t>Statisticians in the Pharmaceutical Industry (PSI) Visualisation Special Interest Group (VIS SIG)</t>
+  </si>
+  <si>
+    <t>&lt;i class="fab fa-github"&gt;&lt;/i&gt;  &lt;a href="https://github.com/agstn/WW"&gt;Visualizations and Dashboards Contributions &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fab fa-youtube"&gt;&lt;/i&gt;[Visualisations of multiple endpoints over times](https://www.psiweb.org/vod/item/psi-vissig-wonderful-wednesday-16-multiple-endpoints-in-vasculitis#video_567535951)</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa fa-microphone"&gt;&lt;/i&gt;[Interviewed for the Effective Statistician podcast](https://theeffectivestatistician.com/)</t>
+  </si>
+  <si>
+    <t>NHANES: Getting to Grips with the Big Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizing Multivariate Data&lt;br&gt;Turning Information Into Understanding
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,26 +759,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="7" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,10 +813,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -823,25 +824,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="G2" s="1">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -849,25 +850,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="G3" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -875,50 +876,59 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1995</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1996</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -927,126 +937,123 @@
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="G6" s="1">
         <v>2005</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
+        <v>1996</v>
+      </c>
+      <c r="G8" s="1">
         <v>2002</v>
       </c>
-      <c r="G7" s="1">
-        <v>2005</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="1">
-        <v>1998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1996</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2002</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1">
         <v>2011</v>
@@ -1055,62 +1062,62 @@
         <v>2020</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G11" s="1">
         <v>2015</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1">
         <v>2014</v>
@@ -1119,30 +1126,30 @@
         <v>2014</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F13" s="1">
         <v>2013</v>
@@ -1151,24 +1158,24 @@
         <v>2013</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1">
         <v>2017</v>
@@ -1177,188 +1184,179 @@
         <v>2017</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="G15" s="1">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2005</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F21" s="1">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="G21" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1">
         <v>2011</v>
@@ -1367,21 +1365,21 @@
         <v>2011</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1">
         <v>2018</v>
@@ -1390,18 +1388,18 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F24" s="1">
         <v>2015</v>
@@ -1410,18 +1408,18 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1">
         <v>2019</v>
@@ -1430,18 +1428,18 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F26" s="1">
         <v>2017</v>
@@ -1450,18 +1448,18 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1">
         <v>2018</v>
@@ -1470,18 +1468,18 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1">
         <v>2019</v>
@@ -1490,18 +1488,18 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1">
         <v>2019</v>
@@ -1510,18 +1508,18 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F30" s="1">
         <v>2017</v>
@@ -1530,21 +1528,21 @@
         <v>2017</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F31" s="1">
         <v>2018</v>
@@ -1553,18 +1551,18 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1">
         <v>2017</v>
@@ -1573,18 +1571,18 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1">
         <v>2015</v>
@@ -1593,18 +1591,18 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F34" s="1">
         <v>2019</v>
@@ -1612,19 +1610,22 @@
       <c r="G34" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1">
         <v>2019</v>
@@ -1632,22 +1633,19 @@
       <c r="G35" s="1">
         <v>2019</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F36" s="1">
         <v>2019</v>
@@ -1655,116 +1653,76 @@
       <c r="G36" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F37" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="G37" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="F38" s="1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G38" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F39" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G39" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G41" s="1">
-        <v>2017</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>124</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H41" r:id="rId1" display="https://github.com/RhoInc/CASI_MID_x000a_"/>
+    <hyperlink ref="H37" r:id="rId1" display="https://github.com/RhoInc/CASI_MID_x000a_" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
